--- a/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="웨이브" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5974,8 +5975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
@@ -20,7 +20,6 @@
     <sheet name="웨이브" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2270,15 +2269,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2287,7 +2286,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5724525" y="8372475"/>
+          <a:off x="5857875" y="9534525"/>
           <a:ext cx="2238375" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2335,15 +2334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2352,7 +2351,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409824" y="9686925"/>
+          <a:off x="2257424" y="8858250"/>
           <a:ext cx="3609975" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3538,7 +3537,7 @@
   <dimension ref="B2:K54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3930,8 +3929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M117"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O108" sqref="O108"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5975,8 +5974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
@@ -1287,95 +1287,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>회복형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치를 한번에 한번 올려주고 끝나는 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치를 몇 스테이지 동안 지속해서 올려주는 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.미션 진행 순서도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 진행 순서도, 속도 보상 내용 제거, 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 + 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 + 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 쿨타임 -2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 회복율 + 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보상의 리스트와 효과 적용에 대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보상은 스테이지 하나당 하나의 보상만 받을 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 보상은 수치를 올려주는 보상임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 능력치가 상승하는 보상의 경우 게임이 끝날때 까지 지속됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 같은 능력치가 적용 될시 합해짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>5. 버프형 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수치를 한번에 한번 올려주고 끝나는 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수치를 몇 스테이지 동안 지속해서 올려주는 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.미션 진행 순서도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 쿨타임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 진행 순서도, 속도 보상 내용 제거, 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 + 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 + 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 쿨타임 -2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 회복율 + 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용어 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 스폰 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 스폰 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보상의 리스트와 효과 적용에 대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보상은 스테이지 하나당 하나의 보상만 받을 수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 모든 보상은 수치를 올려주는 보상임.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 능력치가 상승하는 보상의 경우 게임이 끝날때 까지 지속됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 같은 능력치가 적용 될시 합해짐.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3608,10 +3608,10 @@
         <v>43669</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3929,8 +3929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M117"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5155,7 +5155,7 @@
         <v>158</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
@@ -5172,7 +5172,7 @@
         <v>159</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
@@ -5189,7 +5189,7 @@
         <v>157</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
@@ -5203,7 +5203,7 @@
         <v>157</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
@@ -5254,7 +5254,7 @@
         <v>157</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
@@ -5975,7 +5975,7 @@
   <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6002,7 +6002,7 @@
         <v>133</v>
       </c>
       <c r="K5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -6018,7 +6018,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>218</v>
@@ -6040,10 +6040,10 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K9" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -6051,10 +6051,10 @@
         <v>10</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -6074,17 +6074,17 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
@@ -6094,7 +6094,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
@@ -6139,7 +6139,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
@@ -6161,7 +6161,7 @@
         <v>222</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6171,7 +6171,7 @@
         <v>223</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -6181,17 +6181,17 @@
         <v>224</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="157" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B157" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -2733,13 +2733,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>52450</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2776,13 +2776,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>8404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2836,16 +2836,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>6926</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7792</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6925</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>7791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>61479</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>110076</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106302</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>110075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2862,8 +2862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15104051" y="4160692"/>
-          <a:ext cx="7093528" cy="6388785"/>
+          <a:off x="421543" y="15763262"/>
+          <a:ext cx="7091847" cy="6489637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2879,16 +2879,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>7647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>338570</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>118118</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>95705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2905,8 +2905,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15106650" y="18040351"/>
-          <a:ext cx="10111220" cy="7490468"/>
+          <a:off x="424143" y="50490147"/>
+          <a:ext cx="9448240" cy="7114146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2922,16 +2922,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>63954</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>150131</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108777</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>194956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2948,8 +2948,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15106650" y="11077575"/>
-          <a:ext cx="8465004" cy="6474731"/>
+          <a:off x="424142" y="32125585"/>
+          <a:ext cx="8458841" cy="6572783"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4957,16 +4957,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P155"/>
+  <dimension ref="B2:L301"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G230" sqref="G230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="49.75" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="11" max="11" width="19.75" customWidth="1"/>
     <col min="12" max="12" width="56.75" customWidth="1"/>
     <col min="14" max="14" width="17.125" customWidth="1"/>
@@ -4974,991 +4976,1134 @@
     <col min="17" max="17" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="K8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="25"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-    </row>
-    <row r="22" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="25"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="25"/>
+    </row>
+    <row r="28" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="K23" s="23" t="s">
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="27"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="P23" s="1" t="s">
+      <c r="C30" s="24"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" s="23"/>
+      <c r="L37" s="24"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K38" s="23"/>
+      <c r="L38" s="24"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="12"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="24"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="12"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="24"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="24"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
+    <row r="108" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B108" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B109" s="27"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" s="24"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B117" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B118" s="27"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B120" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B124" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B125" s="27"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B126" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B185" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B186" s="27"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B187" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C187" s="24"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B188" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B189" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B190" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B191" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B192" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B193" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B194" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B195" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B196" s="27"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B198" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B199" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B200" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B201" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B202" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B203" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B204" s="27"/>
+    </row>
+    <row r="205" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B205" s="27"/>
+    </row>
+    <row r="206" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B206" s="27"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B208" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>203</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>204</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="K28" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>299</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>170</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>272</v>
-      </c>
-      <c r="K34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>271</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K36" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K37" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>209</v>
-      </c>
-      <c r="K39" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="8" t="s">
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="K56" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="L56" s="24"/>
-      <c r="P56" s="1" t="s">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="K57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="K58" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B59" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="K60" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>212</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>211</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K66" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>183</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>184</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>273</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K71" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="K89" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="L89" s="24"/>
-      <c r="P89" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="K90" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M90" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="N90" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="K91" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="92" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B92" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M92" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="K93" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B94" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>214</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>215</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="M96" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>216</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="M97" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B100" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>274</v>
-      </c>
-      <c r="K101" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>210</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="L102" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M102" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>192</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="M103" s="1"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K104" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="M104" s="1"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="K105" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="M105" s="1"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B106" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="M106" s="1"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>193</v>
-      </c>
-      <c r="K107" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M107" s="1"/>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B111" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
+    <row r="278" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C133" t="s">
+    <row r="279" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C279" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C134" t="s">
+    <row r="280" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C136" t="s">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C282" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C137" t="s">
+    <row r="283" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C283" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C138" t="s">
+    <row r="284" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C284" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C139" t="s">
+    <row r="285" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C285" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C140" t="s">
+    <row r="286" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C286" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
+    <row r="287" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C287" t="s">
         <v>82</v>
       </c>
-      <c r="K141" s="1" t="s">
+      <c r="K287" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C142" t="s">
+    <row r="288" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C288" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C143" t="s">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C289" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C145" t="s">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C291" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C146" t="s">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C292" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C147" t="s">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C293" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C149" t="s">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C150" t="s">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C296" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C151" t="s">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C297" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C153" t="s">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C299" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C154" t="s">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" t="s">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C301" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5974,8 +6119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="338">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1376,6 +1376,10 @@
   </si>
   <si>
     <t>5. 버프형 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 정리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3536,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3616,9 +3620,15 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="4">
+        <v>43689</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
@@ -4959,7 +4969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L301"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G230" sqref="G230"/>
     </sheetView>
   </sheetViews>

--- a/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_미션 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="361">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.2. 생존</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2.3. 방어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -767,619 +763,715 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  - 승리 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한 시간 내에 생존</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 패배 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 캐릭터의 HP가 0이하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 예외 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 패배 조건은 하나만 달성되도 패배임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 웨이브 동안 한정된 몬스터가 스폰됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 모든 웨이브 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 캐릭터의 HP가 0이하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 승리 조건인 모든 웨이브를 버텨야 승리가 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 웨이브는 오직 하나만 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 미션 상황 표시 UI는 증복된다면 앞에 있는 내용을 제거하고 새로운 내용을 보여줌.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 웨이브당 할당된 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 0초 가 되어 패배하게 되는 미션의 경우 0초가 되고 게임오버 UI가 뜬다면 조작을 불가능 하게 전환함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 빠른전투, 진행이 핵심인 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 적은 몬스터로 빠르게 진행이 가능하지만 그만큼 변신게이지가 손해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 유저에게 빠르게 진행하는 대신 보상을 일부 포기하는 선택을 제시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제한 시간 내에 모든 몬스터 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 모든 몬스터 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한 시간 내에 모든 몬스터 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 웨이브마다 나오는 모든 몬스터를 처치해야 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 적을 쫓기 보단 특정지역에서 적을 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 자신의 스킬의 사용 대처에 따라 클리어 시간의 차이와 달성감 존재.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 클리어시 유저에게 주어지는 효과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 회복형 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 회복율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보상은 두가지 회복형과 지속형이 존재함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 현재 스테이지의 보상은 다음 스테이지에서 적용됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보상의 종류에 따라 유저에게 스테이지 선택에 대한 고민을 유도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 미션 진행 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 섬멸 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 생존 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 방어 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 게이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 게이지 + 100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따로 시간은 없고 보상받을때 한번 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터 스폰에 대한 정보는 "몬스터 스폰 테이블" 에서 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터를 생성하는 좌표 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션의 스폰될 몬스터의 수와 종류, 제한시간 의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션의 스폰될 몬스터의 수와 종류, 제한시간 의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터, 몬스터가 스폰되는 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Nom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Survive_Mon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존미션에 사용할 몬스터의 정보와 스폰될 몬스터들의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용되는 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense_Mon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어미션에 사용할 몬스터의 정보와 스폰될 몬스터들의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지의 좌표 정보와 오브젝트의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Nom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지의 정보를 받아 오브젝트와 그라운드 배치 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn_Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave_Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 스폰 양만큼 받고 몬스터를 처치시 감소됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브의 최대치 만큼 받고 현재 웨이브 비교 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 제한시간 0초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 섬멸 미션은 Monster_Count 가 0이 되면 승리함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Monster_Count 는 스폰될 몬스터의 수 만큼 갱신되고 몬스터 처치시 감소됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Wave_Count 만큼 웨이브를 진행함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        -섬멸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        -생존</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        -방어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        -구출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2 시스템 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.1 시스템 개요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.4 회복형 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.5 버프형 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2 시스템 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4 승리 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5 패배 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      1.6 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초안 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      4.1 미션 진행 흐름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.2 섬멸 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.3 생존 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.4 방어 미션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 시스템 문서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한시간이 존재하고 Mission_Time에서 시간을 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, ui출력 내용추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 데이터를 어떻게 넘겨줄건지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annihilation_Mon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Nom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터가 재스폰 되는 시간 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터가 재스폰 되는 시간 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬멸 미션에 스폰될 몬스터들의 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 미션 진행 순서도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 내용, 보상 레이아웃을 클릭한채로 레이아웃 밖으로 이동시 클릭 취소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 내용, 보상 레이아웃을 클릭할시 상호작용됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치를 한번에 한번 올려주고 끝나는 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치를 몇 스테이지 동안 지속해서 올려주는 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.미션 진행 순서도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 진행 순서도, 속도 보상 내용 제거, 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 + 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 + 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 쿨타임 -2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 회복율 + 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 스폰 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보상의 리스트와 효과 적용에 대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보상은 스테이지 하나당 하나의 보상만 받을 수 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 모든 보상은 수치를 올려주는 보상임.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 능력치가 상승하는 보상의 경우 게임이 끝날때 까지 지속됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 같은 능력치가 적용 될시 합해짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 버프형 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2. 구슬 받기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 구슬 획득 속도로 게임시간의 차이 나고 스피드런이 가능함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 유저의 선택에 따라 변신게이지 획득양이 다름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한 시간동안 구슬 획득을 위한 루트탐색과 행동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">   - 제한 시간 동안 몬스터는 무제한 스폰 됨.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 승리 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한 시간 내에 생존</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 패배 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 캐릭터의 HP가 0이하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 예외 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 승리 조건인 제한시간만 달성해도 승리가 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 패배 조건은 하나만 달성되도 패배임.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 웨이브 동안 한정된 몬스터가 스폰됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 모든 웨이브 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 캐릭터의 HP가1이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 캐릭터의 HP가 0이하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 승리 조건인 모든 웨이브를 버텨야 승리가 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 웨이브는 오직 하나만 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 미션 상황 표시 UI는 증복된다면 앞에 있는 내용을 제거하고 새로운 내용을 보여줌.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 웨이브당 할당된 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 0초 가 되어 패배하게 되는 미션의 경우 0초가 되고 게임오버 UI가 뜬다면 조작을 불가능 하게 전환함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 빠른전투, 진행이 핵심인 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 적은 몬스터로 빠르게 진행이 가능하지만 그만큼 변신게이지가 손해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 유저에게 빠르게 진행하는 대신 보상을 일부 포기하는 선택을 제시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 제한 시간 내에 모든 몬스터 처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 모든 몬스터 처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한 시간 내에 모든 몬스터 처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 웨이브마다 나오는 모든 몬스터를 처치해야 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 처치 속도에 따라 변신 게이지 보상을 더 받을 수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 빠른 처치와 시간내 계속되는 전투가 핵심.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 유저에게 실력에 따라 변신 게이지 보상을 추가로 얻는 기회를 제시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 점점 대량으로 오는 적을 처치하는 것이 핵심</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 적을 쫓기 보단 특정지역에서 적을 처치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 점점 늘어나는 적에게 어떻게 스킬을 사용하여 효율적인 퇴치 생각 유도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 자신의 스킬의 사용 대처에 따라 클리어 시간의 차이와 달성감 존재.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 클리어시 유저에게 주어지는 효과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 회복형 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 회복율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적용 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등장 확률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보상은 두가지 회복형과 지속형이 존재함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 현재 스테이지의 보상은 다음 스테이지에서 적용됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보상의 종류에 따라 유저에게 스테이지 선택에 대한 고민을 유도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 미션 진행 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 섬멸 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 생존 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 방어 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 게이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 게이지 + 100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>즉시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>따로 시간은 없고 보상받을때 한번 적용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 몬스터 스폰에 대한 정보는 "몬스터 스폰 테이블" 에서 받아옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터를 생성하는 좌표 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션의 스폰될 몬스터의 수와 종류, 제한시간 의 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션의 스폰될 몬스터의 수와 종류, 제한시간 의 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터, 몬스터가 스폰되는 위치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spawn_Nom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Survive_Mon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생존미션에 사용할 몬스터의 정보와 스폰될 몬스터들의 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 스폰 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 스폰 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용되는 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense_Mon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어미션에 사용할 몬스터의 정보와 스폰될 몬스터들의 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지의 좌표 정보와 오브젝트의 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage_Nom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지의 정보를 받아 오브젝트와 그라운드 배치 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission_Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spawn_Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spawn_Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wave_Count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_Count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 스폰 양만큼 받고 몬스터를 처치시 감소됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브의 최대치 만큼 받고 현재 웨이브 비교 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    - 제한시간 0초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 섬멸 미션은 Monster_Count 가 0이 되면 승리함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Monster_Count 는 스폰될 몬스터의 수 만큼 갱신되고 몬스터 처치시 감소됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한 시간이 0이하가 되면 몬스터의 스폰도 정지되고 모든 몬스터는 처치됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Wave_Count 만큼 웨이브를 진행함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        -섬멸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        -생존</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        -방어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        -구출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3 예외처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.2 시스템 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.1 시스템 개요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.4 회복형 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    3.5 버프형 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2 시스템 룰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3 예외처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.4 승리 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.5 패배 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      1.6 UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초안 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      4.1 미션 진행 흐름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.2 섬멸 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.3 생존 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.4 방어 미션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 시스템 문서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mission_Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   - 제한시간이 존재하고 Mission_Time에서 시간을 받아옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, ui출력 내용추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, 데이터를 어떻게 넘겨줄건지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annihilation_Mon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage_Nom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 스폰 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터가 재스폰 되는 시간 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터가 재스폰 되는 시간 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬멸 미션에 스폰될 몬스터들의 정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 미션 진행 순서도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 내용, 보상 레이아웃을 클릭한채로 레이아웃 밖으로 이동시 클릭 취소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 내용, 보상 레이아웃을 클릭할시 상호작용됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수치를 한번에 한번 올려주고 끝나는 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수치를 몇 스테이지 동안 지속해서 올려주는 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.미션 진행 순서도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 쿨타임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 진행 순서도, 속도 보상 내용 제거, 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력 + 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 + 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 쿨타임 -2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>변신 회복율 + 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용어 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 스폰 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 스폰 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보상의 리스트와 효과 적용에 대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보상은 스테이지 하나당 하나의 보상만 받을 수 있음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 모든 보상은 수치를 올려주는 보상임.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 능력치가 상승하는 보상의 경우 게임이 끝날때 까지 지속됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 같은 능력치가 적용 될시 합해짐.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 버프형 보상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서 정리</t>
+    <t xml:space="preserve"> - 제한 시간 룰 -</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 구슬 획득 룰 - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구슬의 재생성 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beadspawn_Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 구슬은 Beadspawn_Time 에서 재스폰 시간을 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 구슬은 땅으로 천천히 내려오며 땅과 충돌시 사라짐.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 구슬의 스폰 시간은 스폰된 시점부터 다시 진행함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 구슬의 개수가 MAX상태라면 모든 몬스터를 처치하고 미션을 완료함. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 구슬 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 승리 조건인 구슬을 획득해야 승리가 됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 제한 시간동안에 메인목표 달성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 점점 대량으로 오는 적을 처치하며 방어대상을 지키는것이 핵심</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 점점 늘어나는 적에게 어떻게 스킬을 사용하여 효율적인 퇴치, 방어할지 생각 유도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터 스폰 -</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 방어 대상 -</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 방어대상은 체력이 존재함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 방어대상의 체력이 0이되면 패배람.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 몬스터가 공격 우선순위인 로 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 몬스터를 공격할 때마다 우선순위 변경됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 방어대상의 HP가 0이하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 방어대상의 HP가1 이상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 캐릭터의 HP가1 이상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 구슬 획득이 끝나면 몬스터 스폰도 종료됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1473,7 +1565,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,6 +1575,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,7 +1694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1683,6 +1781,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2737,13 +2838,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>52450</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2780,13 +2881,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>274</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>8404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2885,14 +2986,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>7647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>267</xdr:row>
-      <xdr:rowOff>95705</xdr:rowOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>95704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2928,13 +3029,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>108777</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>194956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3540,8 +3641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3554,7 +3655,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -3588,10 +3689,10 @@
         <v>43651</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -3600,10 +3701,10 @@
         <v>43653</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3612,10 +3713,10 @@
         <v>43669</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3624,10 +3725,10 @@
         <v>43689</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3760,154 +3861,154 @@
     </row>
     <row r="30" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="K30" s="26"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="29"/>
+      <c r="C31" s="30"/>
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="C32" s="29"/>
+      <c r="B32" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="30"/>
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33" s="29"/>
+      <c r="B33" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="30"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="C34" s="29"/>
+      <c r="B34" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="C35" s="29"/>
+      <c r="B35" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="30"/>
+      <c r="B36" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="31"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="31"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="30"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="30"/>
+      <c r="C39" s="31"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="26" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C40" s="26"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="26" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C41" s="26"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="26" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C42" s="26"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="26" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C43" s="26"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C44" s="26"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C45" s="29"/>
+      <c r="B45" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" s="30"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="C46" s="29"/>
+      <c r="B46" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="30"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="C47" s="29"/>
+      <c r="B47" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="30"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="29"/>
+      <c r="B48" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="C49" s="29"/>
+      <c r="B49" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C49" s="30"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C50" s="13"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C52" s="29"/>
+      <c r="B52" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" s="30"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="C53" s="29"/>
+      <c r="B53" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" s="30"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="C54" s="29"/>
+      <c r="B54" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C54" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3978,7 +4079,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>13</v>
@@ -4019,7 +4120,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>24</v>
@@ -4030,54 +4131,54 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
@@ -4087,72 +4188,72 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
@@ -4391,27 +4492,27 @@
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
@@ -4650,7 +4751,7 @@
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -4665,37 +4766,37 @@
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
@@ -4934,27 +5035,27 @@
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4967,10 +5068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L301"/>
+  <dimension ref="B2:L316"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G230" sqref="G230"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4998,7 +5099,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
@@ -5018,32 +5119,32 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
@@ -5059,66 +5160,66 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -5141,7 +5242,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" s="24"/>
       <c r="K30" s="23"/>
@@ -5149,128 +5250,140 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>149</v>
+      <c r="G31" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="K31" s="23"/>
       <c r="L31" s="24"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
+      </c>
+      <c r="G32" s="29">
+        <v>180</v>
+      </c>
+      <c r="H32" s="29">
+        <v>20</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" s="24"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="K33" s="23"/>
       <c r="L33" s="24"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K34" s="23"/>
       <c r="L34" s="24"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="K35" s="23"/>
       <c r="L35" s="24"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="K36" s="23"/>
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
@@ -5285,7 +5398,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E40" s="12"/>
       <c r="K40" s="23"/>
@@ -5296,10 +5409,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E41" s="12"/>
       <c r="K41" s="23"/>
@@ -5307,10 +5420,10 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="12"/>
@@ -5319,10 +5432,10 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D43" s="1"/>
       <c r="K43" s="23"/>
@@ -5330,10 +5443,10 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" s="1"/>
       <c r="K44" s="23"/>
@@ -5341,10 +5454,10 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="28" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D45" s="1"/>
       <c r="K45" s="23"/>
@@ -5352,769 +5465,890 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B108" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B109" s="27"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B110" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C110" s="24"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B111" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="E111" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G111" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
+      </c>
+      <c r="G112" s="29">
+        <v>180</v>
+      </c>
+      <c r="H112" s="29">
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B118" s="27"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>161</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B119" s="27"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>149</v>
+      <c r="B120" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D121" s="1"/>
+      <c r="B121" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B124" s="28" t="s">
-        <v>258</v>
+      <c r="B124" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B125" s="27"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="8" t="s">
-        <v>180</v>
-      </c>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B126" s="27"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>212</v>
+      <c r="B127" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>211</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="8"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="25" t="s">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" s="8" t="s">
-        <v>185</v>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
-        <v>186</v>
+      <c r="B139" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>174</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="8" t="s">
-        <v>187</v>
+      <c r="B142" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="8" t="s">
-        <v>189</v>
+        <v>340</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" t="s">
-        <v>190</v>
+      <c r="B146" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B185" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B186" s="27"/>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B187" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C187" s="24"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B188" s="5" t="s">
+      <c r="B149" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B195" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B196" s="27"/>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B197" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C197" s="24"/>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B198" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C198" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D198" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D188" s="6" t="s">
+      <c r="E198" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E188" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B189" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E189" s="1" t="s">
+      <c r="G198" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B199" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G199" s="29">
+        <v>0</v>
+      </c>
+      <c r="H199" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B200" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B201" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B202" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B203" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B204" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B205" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B206" s="27"/>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B208" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B209" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B210" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B211" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B212" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B213" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B190" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B191" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B192" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B193" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B194" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B195" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="196" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B196" s="27"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B197" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B198" s="5" t="s">
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B214" s="27"/>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B216" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B199" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D199" s="1"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B200" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D200" s="1"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B201" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D201" s="1"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B202" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D202" s="1"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B203" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D203" s="1"/>
-    </row>
-    <row r="204" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B204" s="27"/>
-    </row>
-    <row r="205" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B205" s="27"/>
-    </row>
-    <row r="206" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B206" s="27"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B208" s="8" t="s">
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B222" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B215" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B216" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B220" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B221" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B222" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" t="s">
-        <v>194</v>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B223" s="8"/>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B224" s="8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" s="8" t="s">
-        <v>187</v>
+      <c r="B225" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
-        <v>195</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="8" t="s">
-        <v>177</v>
+        <v>347</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" t="s">
-        <v>196</v>
+      <c r="B229" s="25" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" t="s">
-        <v>197</v>
+      <c r="B230" s="25" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B231" t="s">
-        <v>198</v>
-      </c>
+      <c r="B231" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="25"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B278" t="s">
+      <c r="B234" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C294" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C279" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C280" t="s">
+    <row r="295" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C297" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="298" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="299" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C299" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="300" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C301" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
+        <v>81</v>
+      </c>
+      <c r="K302" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C282" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C283" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C284" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C285" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C286" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C287" t="s">
+    <row r="303" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C303" t="s">
         <v>82</v>
       </c>
-      <c r="K287" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C288" t="s">
+    </row>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C304" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C289" t="s">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C306" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C307" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C308" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C310" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C311" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C312" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C314" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C315" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C316" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C291" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C292" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C293" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C295" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C296" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C297" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C299" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C300" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C301" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6144,7 +6378,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -6154,15 +6388,15 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>11</v>
@@ -6173,32 +6407,32 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K9" s="11" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -6206,40 +6440,40 @@
         <v>10</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
@@ -6249,104 +6483,104 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="28" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -6373,22 +6607,22 @@
   <sheetData>
     <row r="2" spans="2:2" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="27" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B72" s="27" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
@@ -6486,12 +6720,12 @@
     </row>
     <row r="108" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B108" s="27" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="157" spans="2:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B157" s="27" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -6518,7 +6752,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -6528,12 +6762,12 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>11</v>
@@ -6544,29 +6778,29 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L8" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="L9" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
@@ -6576,37 +6810,37 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
@@ -6616,47 +6850,47 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
